--- a/TODO/Edits/Charts.xlsx
+++ b/TODO/Edits/Charts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="22860" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="19320" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -238,8 +238,8 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="#,##0.000"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -280,7 +280,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -290,6 +290,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,12 +313,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -321,49 +324,57 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -698,20 +709,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
     <col min="5" max="5" width="8.7109375" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" customWidth="1"/>
     <col min="10" max="10" width="17.140625" customWidth="1"/>
     <col min="11" max="11" width="16.140625" customWidth="1"/>
     <col min="12" max="12" width="18.5703125" customWidth="1"/>
@@ -726,470 +735,470 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:16" s="6" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
+    <row r="3" spans="2:16" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="P3" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="B4" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="12">
         <v>10000000</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="12">
         <v>18400</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="13">
         <v>1.6299999999999999E-3</v>
       </c>
-      <c r="I4" s="2">
-        <f>F4*H4</f>
+      <c r="I4" s="12">
+        <f t="shared" ref="I4:I11" si="0">F4*H4</f>
         <v>16300</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="11">
         <v>13.5</v>
       </c>
-      <c r="K4" s="2">
-        <f>I4*J4</f>
+      <c r="K4" s="12">
+        <f t="shared" ref="K4:K11" si="1">I4*J4</f>
         <v>220050</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="11">
         <v>2E-3</v>
       </c>
-      <c r="M4" s="1">
-        <f>K4*L4</f>
+      <c r="M4" s="11">
+        <f t="shared" ref="M4:M11" si="2">K4*L4</f>
         <v>440.1</v>
       </c>
-      <c r="N4" s="4">
-        <f>G4/M4</f>
+      <c r="N4" s="14">
+        <f t="shared" ref="N4:N11" si="3">G4/M4</f>
         <v>41.808679845489657</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="11">
         <v>3</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="B5" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="12">
         <v>15000000</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="12">
         <v>18400</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="13">
         <v>1.08E-3</v>
       </c>
-      <c r="I5" s="2">
-        <f>F5*H5</f>
+      <c r="I5" s="12">
+        <f t="shared" si="0"/>
         <v>16200</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="11">
         <v>13.5</v>
       </c>
-      <c r="K5" s="2">
-        <f>I5*J5</f>
+      <c r="K5" s="12">
+        <f t="shared" si="1"/>
         <v>218700</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="11">
         <v>2E-3</v>
       </c>
-      <c r="M5" s="1">
-        <f>K5*L5</f>
+      <c r="M5" s="11">
+        <f t="shared" si="2"/>
         <v>437.40000000000003</v>
       </c>
-      <c r="N5" s="4">
-        <f>G5/M5</f>
+      <c r="N5" s="14">
+        <f t="shared" si="3"/>
         <v>42.066758116140832</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="11">
         <v>4</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="11">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="B6" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="12">
         <v>20000000</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="12">
         <v>18400</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="13">
         <v>8.250000000000001E-4</v>
       </c>
-      <c r="I6" s="2">
-        <f>F6*H6</f>
+      <c r="I6" s="12">
+        <f t="shared" si="0"/>
         <v>16500.000000000004</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="11">
         <v>13.5</v>
       </c>
-      <c r="K6" s="2">
-        <f>I6*J6</f>
+      <c r="K6" s="12">
+        <f t="shared" si="1"/>
         <v>222750.00000000006</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="11">
         <v>2E-3</v>
       </c>
-      <c r="M6" s="1">
-        <f>K6*L6</f>
+      <c r="M6" s="11">
+        <f t="shared" si="2"/>
         <v>445.50000000000011</v>
       </c>
-      <c r="N6" s="4">
-        <f>G6/M6</f>
+      <c r="N6" s="14">
+        <f t="shared" si="3"/>
         <v>41.301907968574625</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="11">
         <v>2</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="B7" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="12">
         <v>5000000</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="12">
         <v>18400</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="13">
         <v>3.2399999999999998E-3</v>
       </c>
-      <c r="I7" s="2">
-        <f>F7*H7</f>
+      <c r="I7" s="12">
+        <f t="shared" si="0"/>
         <v>16200</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="11">
         <v>13.5</v>
       </c>
-      <c r="K7" s="2">
-        <f>I7*J7</f>
+      <c r="K7" s="12">
+        <f t="shared" si="1"/>
         <v>218700</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="11">
         <v>2E-3</v>
       </c>
-      <c r="M7" s="1">
-        <f>K7*L7</f>
+      <c r="M7" s="11">
+        <f t="shared" si="2"/>
         <v>437.40000000000003</v>
       </c>
-      <c r="N7" s="4">
-        <f>G7/M7</f>
+      <c r="N7" s="14">
+        <f t="shared" si="3"/>
         <v>42.066758116140832</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="11">
         <v>4</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="11">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="B8" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="12">
         <v>100000</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="12">
         <v>8000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="13">
         <v>0.2</v>
       </c>
-      <c r="I8" s="2">
-        <f>F8*H8</f>
+      <c r="I8" s="12">
+        <f t="shared" si="0"/>
         <v>20000</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="11">
         <v>13.5</v>
       </c>
-      <c r="K8" s="2">
-        <f>I8*J8</f>
+      <c r="K8" s="12">
+        <f t="shared" si="1"/>
         <v>270000</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="11">
         <v>2E-3</v>
       </c>
-      <c r="M8" s="1">
-        <f>K8*L8</f>
+      <c r="M8" s="11">
+        <f t="shared" si="2"/>
         <v>540</v>
       </c>
-      <c r="N8" s="4">
-        <f>G8/M8</f>
+      <c r="N8" s="14">
+        <f t="shared" si="3"/>
         <v>14.814814814814815</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="11">
         <v>1</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="B9" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="12">
         <v>200000</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="12">
         <v>20000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="13">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="I9" s="2">
-        <f>F9*H9</f>
+      <c r="I9" s="12">
+        <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="11">
         <v>13.5</v>
       </c>
-      <c r="K9" s="2">
-        <f>I9*J9</f>
+      <c r="K9" s="12">
+        <f t="shared" si="1"/>
         <v>33750</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="11">
         <v>2E-3</v>
       </c>
-      <c r="M9" s="1">
-        <f>K9*L9</f>
+      <c r="M9" s="11">
+        <f t="shared" si="2"/>
         <v>67.5</v>
       </c>
-      <c r="N9" s="4">
-        <f>G9/M9</f>
+      <c r="N9" s="14">
+        <f t="shared" si="3"/>
         <v>296.2962962962963</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="11">
         <v>6</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="B10" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="12">
         <v>300000</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="12">
         <v>20000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="13">
         <v>8.3333333333333332E-3</v>
       </c>
-      <c r="I10" s="2">
-        <f>F10*H10</f>
+      <c r="I10" s="12">
+        <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="11">
         <v>13.5</v>
       </c>
-      <c r="K10" s="2">
-        <f>I10*J10</f>
+      <c r="K10" s="12">
+        <f t="shared" si="1"/>
         <v>33750</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="11">
         <v>2E-3</v>
       </c>
-      <c r="M10" s="1">
-        <f>K10*L10</f>
+      <c r="M10" s="11">
+        <f t="shared" si="2"/>
         <v>67.5</v>
       </c>
-      <c r="N10" s="4">
-        <f>G10/M10</f>
+      <c r="N10" s="14">
+        <f t="shared" si="3"/>
         <v>296.2962962962963</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="11">
         <v>6</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="B11" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="12">
         <v>300000</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="12">
         <v>4000</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="13">
         <v>3.333333333333334E-2</v>
       </c>
-      <c r="I11" s="2">
-        <f>F11*H11</f>
+      <c r="I11" s="12">
+        <f t="shared" si="0"/>
         <v>10000.000000000002</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="11">
         <v>13.5</v>
       </c>
-      <c r="K11" s="2">
-        <f>I11*J11</f>
+      <c r="K11" s="12">
+        <f t="shared" si="1"/>
         <v>135000.00000000003</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="11">
         <v>2E-3</v>
       </c>
-      <c r="M11" s="1">
-        <f>K11*L11</f>
+      <c r="M11" s="11">
+        <f t="shared" si="2"/>
         <v>270.00000000000006</v>
       </c>
-      <c r="N11" s="4">
-        <f>G11/M11</f>
+      <c r="N11" s="14">
+        <f t="shared" si="3"/>
         <v>14.814814814814811</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="11">
         <v>5</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G12" s="8"/>
-      <c r="I12" s="2"/>
+      <c r="G12" s="5"/>
+      <c r="I12" s="1"/>
     </row>
     <row r="13" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M13" s="5"/>
+      <c r="M13" s="2"/>
     </row>
     <row r="15" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="8">
+      <c r="B15" s="5">
         <f>SUM(I4:I7)</f>
         <v>65200</v>
       </c>
@@ -1204,7 +1213,7 @@
       </c>
     </row>
     <row r="17" spans="2:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="8">
+      <c r="B17" s="5">
         <f>SUM(I9:I11)</f>
         <v>15000.000000000002</v>
       </c>
@@ -1219,8 +1228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1236,230 +1245,231 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="E3" s="19" t="s">
+      <c r="C3" s="10"/>
+      <c r="E3" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
     </row>
     <row r="4" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="16">
         <v>13.5</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="E4" s="11"/>
+      <c r="F4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="16">
         <v>2E-3</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="20">
         <v>25050</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="20">
         <v>25050</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="20">
         <v>25050</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="20">
         <v>25050</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="16">
         <f>C4*C5</f>
         <v>2.7E-2</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="21">
         <f>F5</f>
         <v>25050</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="21">
         <f>F6+G5</f>
         <v>50100</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="21">
         <f>G6+H5</f>
         <v>75150</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="21">
         <f>H6+I5</f>
         <v>100200</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="17">
         <v>193750</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="14">
         <v>2.7E-2</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="14">
         <v>2.7E-2</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="14">
         <v>2.7E-2</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="14">
         <v>2.7E-2</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="18">
         <v>125600</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="14">
         <v>91.5</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="14">
         <v>91.5</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="14">
         <v>91.5</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="14">
         <v>91.5</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="17">
         <f>C7+C8</f>
         <v>319350</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="14">
         <f>F6*F7*F8</f>
         <v>61886.025000000001</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="14">
         <f>G6*G7*G8</f>
         <v>123772.05</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="14">
         <f>H6*H7*H8</f>
         <v>185658.07499999998</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="14">
         <f>I6*I7*I8</f>
         <v>247544.1</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="19">
         <f>C9/C6</f>
         <v>11827777.777777778</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="14">
         <v>193750</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="14">
         <v>0</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="14">
         <v>0</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E11" t="s">
+      <c r="E11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="22">
         <v>31400</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="22">
         <v>31400</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="22">
         <v>31400</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="22">
         <v>31400</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E12" t="s">
+      <c r="E12" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="22">
         <f>F9-F10-F11</f>
         <v>-163263.97500000001</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="22">
         <f>F12+G9-G11</f>
         <v>-70891.925000000003</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="22">
         <f>G12+H9-H11</f>
         <v>83366.14999999998</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="22">
         <f>H12+I9-I11</f>
         <v>299510.25</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1474,309 +1484,314 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="20"/>
-    <col min="2" max="2" width="26.28515625" style="20" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="20" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="20" customWidth="1"/>
-    <col min="5" max="5" width="14" style="20" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="20"/>
-    <col min="7" max="7" width="26.140625" style="20" customWidth="1"/>
-    <col min="8" max="8" width="14" style="20" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" style="20" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" style="20" customWidth="1"/>
-    <col min="11" max="11" width="29.140625" style="20" customWidth="1"/>
-    <col min="12" max="12" width="26.85546875" style="20" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="20" customWidth="1"/>
-    <col min="14" max="15" width="13.140625" style="20" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="20"/>
+    <col min="1" max="1" width="9.140625" style="8"/>
+    <col min="2" max="2" width="26.28515625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="14" style="8" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="8"/>
+    <col min="7" max="7" width="26.140625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="14" style="8" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="29.140625" style="8" customWidth="1"/>
+    <col min="12" max="12" width="26.85546875" style="8" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="8" customWidth="1"/>
+    <col min="14" max="15" width="13.140625" style="8" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="G2" s="25" t="s">
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="G2" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="L2" s="25" t="s">
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="L2" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
     </row>
     <row r="3" spans="2:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="23" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="G3" s="24"/>
+      <c r="H3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="23" t="s">
+      <c r="L3" s="24"/>
+      <c r="M3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="23" t="s">
+      <c r="N3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="23" t="s">
+      <c r="O3" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="19">
         <v>65200</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="19">
         <f>C4*0.25</f>
         <v>16300</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="19">
         <f>(C4+D4)*0.25</f>
         <v>20375</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="19">
         <v>20000</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="19">
         <f>H4*0.25</f>
         <v>5000</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="19">
         <f>(H4+I4)*0.25</f>
         <v>6250</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="L4" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="M4" s="17">
+      <c r="M4" s="19">
         <v>15000</v>
       </c>
-      <c r="N4" s="17">
+      <c r="N4" s="19">
         <f>M4*0.25</f>
         <v>3750</v>
       </c>
-      <c r="O4" s="17">
+      <c r="O4" s="19">
         <f>(M4+N4)*0.25</f>
         <v>4687.5</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="19">
         <v>4927</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="19">
         <v>4927</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="19">
         <v>4927</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="19">
         <v>4927</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="19">
         <v>4927</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="19">
         <v>4927</v>
       </c>
-      <c r="L5" s="20" t="s">
+      <c r="L5" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="17">
+      <c r="M5" s="19">
         <v>4927</v>
       </c>
-      <c r="N5" s="17">
+      <c r="N5" s="19">
         <v>4927</v>
       </c>
-      <c r="O5" s="17">
+      <c r="O5" s="19">
         <v>4927</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="25">
         <v>2E-3</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="25">
         <v>2E-3</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="25">
         <v>2E-3</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="25">
         <v>2E-3</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="25">
         <v>2E-3</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J6" s="25">
         <v>2E-3</v>
       </c>
-      <c r="L6" s="20" t="s">
+      <c r="L6" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="M6" s="21">
+      <c r="M6" s="25">
         <v>2E-3</v>
       </c>
-      <c r="N6" s="21">
+      <c r="N6" s="25">
         <v>2E-3</v>
       </c>
-      <c r="O6" s="21">
+      <c r="O6" s="25">
         <v>2E-3</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="19">
         <f>C4*C5*C6</f>
         <v>642480.80000000005</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="19">
         <f>D4*D5*D6</f>
         <v>160620.20000000001</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="19">
         <f>E4*E5*E6</f>
         <v>200775.25</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="19">
         <f>H4*H5*H6</f>
         <v>197080</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="19">
         <f>I4*I5*I6</f>
         <v>49270</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="19">
         <f>J4*J5*J6</f>
         <v>61587.5</v>
       </c>
-      <c r="L7" s="20" t="s">
+      <c r="L7" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="M7" s="17">
+      <c r="M7" s="19">
         <f>M4*M5*M6</f>
         <v>147810</v>
       </c>
-      <c r="N7" s="17">
+      <c r="N7" s="19">
         <f>N4*N5*N6</f>
         <v>36952.5</v>
       </c>
-      <c r="O7" s="17">
+      <c r="O7" s="19">
         <f>O4*O5*O6</f>
         <v>46190.625</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="26">
         <f>C7</f>
         <v>642480.80000000005</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="26">
         <f>D7</f>
         <v>160620.20000000001</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="26">
         <f>E7</f>
         <v>200775.25</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="26">
         <f>H7</f>
         <v>197080</v>
       </c>
-      <c r="I8" s="22">
+      <c r="I8" s="26">
         <f>I7</f>
         <v>49270</v>
       </c>
-      <c r="J8" s="22">
+      <c r="J8" s="26">
         <f>J7</f>
         <v>61587.5</v>
       </c>
-      <c r="L8" s="20" t="s">
+      <c r="L8" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="M8" s="22">
+      <c r="M8" s="26">
         <f>M7</f>
         <v>147810</v>
       </c>
-      <c r="N8" s="22">
+      <c r="N8" s="26">
         <f>N7</f>
         <v>36952.5</v>
       </c>
-      <c r="O8" s="22">
+      <c r="O8" s="26">
         <f>O7</f>
         <v>46190.625</v>
       </c>
     </row>
     <row r="9" spans="2:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="G9" s="24" t="s">
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="G9" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="L9" s="24" t="s">
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="L9" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="6">
